--- a/ProjectDocuments/Nhom11/Template_BangDanhGiaThanhVien.xlsx
+++ b/ProjectDocuments/Nhom11/Template_BangDanhGiaThanhVien.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>BẢNG ĐÁNH GIÁ THÀNH VIÊN</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>Phân công 7</t>
+  </si>
+  <si>
+    <t>0712187</t>
+  </si>
+  <si>
+    <t>Lý Hoài</t>
+  </si>
+  <si>
+    <t>0712188</t>
+  </si>
+  <si>
+    <t>Phan Lê Huỳnh</t>
+  </si>
+  <si>
+    <t>0712236</t>
+  </si>
+  <si>
+    <t>Phan Vũ Lâm</t>
+  </si>
+  <si>
+    <t>0712365</t>
+  </si>
+  <si>
+    <t>0712381</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồ Mẫn Sáng</t>
+  </si>
+  <si>
+    <t>La Minh Tâm</t>
   </si>
 </sst>
 </file>
@@ -201,7 +231,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -245,6 +275,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -545,7 +576,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -553,7 +584,7 @@
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="11.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
     <col min="5" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45.7109375" style="1" customWidth="1"/>
     <col min="13" max="16" width="9.140625" style="1" customWidth="1"/>
@@ -619,15 +650,33 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
       <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
@@ -637,15 +686,33 @@
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1</v>
+      </c>
       <c r="L5" s="12" t="s">
         <v>19</v>
       </c>
@@ -655,15 +722,33 @@
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
       <c r="L6" s="12" t="s">
         <v>20</v>
       </c>
@@ -673,30 +758,66 @@
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="14"/>
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="16">
